--- a/Data Files/MS_General.xlsx
+++ b/Data Files/MS_General.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saringkan\Katalon Studio\MS_General by pA\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saringkan\Katalon Studio\MS_General Azure\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919451CD-E720-4178-85E9-9288CE834F3D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022362EC-FB10-4CE0-84DA-359E74442194}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="91">
   <si>
     <t>TC_01</t>
   </si>
@@ -239,30 +239,18 @@
     <t>Test_13</t>
   </si>
   <si>
-    <t>Test_14</t>
-  </si>
-  <si>
-    <t>Test_15</t>
-  </si>
-  <si>
     <t>Test_16</t>
   </si>
   <si>
     <t>Test_17</t>
   </si>
   <si>
-    <t>Test_18</t>
-  </si>
-  <si>
     <t>Test_19</t>
   </si>
   <si>
     <t>Test_20</t>
   </si>
   <si>
-    <t>Test_21</t>
-  </si>
-  <si>
     <t>Test_22</t>
   </si>
   <si>
@@ -275,9 +263,6 @@
     <t>Test_25</t>
   </si>
   <si>
-    <t>Test_26</t>
-  </si>
-  <si>
     <t>Test_27</t>
   </si>
   <si>
@@ -290,9 +275,6 @@
     <t>Test_30</t>
   </si>
   <si>
-    <t>Test_31</t>
-  </si>
-  <si>
     <t>Test_32</t>
   </si>
   <si>
@@ -318,24 +300,6 @@
   </si>
   <si>
     <t>Test_01</t>
-  </si>
-  <si>
-    <t>Test_02</t>
-  </si>
-  <si>
-    <t>Test_03</t>
-  </si>
-  <si>
-    <t>Test_05</t>
-  </si>
-  <si>
-    <t>Test_07</t>
-  </si>
-  <si>
-    <t>Test_08</t>
-  </si>
-  <si>
-    <t>Test_09</t>
   </si>
 </sst>
 </file>
@@ -732,10 +696,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.09765625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -799,1067 +763,10 @@
         <v>1</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I2" s="5">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="5">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5">
-        <v>2</v>
-      </c>
-      <c r="F3" s="5">
-        <v>2</v>
-      </c>
-      <c r="G3" s="5">
-        <v>2</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I3" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="5">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5">
-        <v>3</v>
-      </c>
-      <c r="F4" s="5">
-        <v>3</v>
-      </c>
-      <c r="G4" s="5">
-        <v>3</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I4" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7">
-        <v>3</v>
-      </c>
-      <c r="E5" s="7">
-        <v>4</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5">
-        <v>4</v>
-      </c>
-      <c r="D6" s="5">
-        <v>4</v>
-      </c>
-      <c r="E6" s="5">
-        <v>4</v>
-      </c>
-      <c r="F6" s="5">
-        <v>4</v>
-      </c>
-      <c r="G6" s="5">
-        <v>4</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="I6" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="7">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7">
-        <v>6</v>
-      </c>
-      <c r="D7" s="7">
-        <v>7</v>
-      </c>
-      <c r="E7" s="7">
-        <v>8</v>
-      </c>
-      <c r="F7" s="7">
-        <v>9</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="5">
-        <v>7</v>
-      </c>
-      <c r="C8" s="5">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5">
-        <v>7</v>
-      </c>
-      <c r="E8" s="5">
-        <v>7</v>
-      </c>
-      <c r="F8" s="5">
-        <v>7</v>
-      </c>
-      <c r="G8" s="5">
-        <v>7</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="I8" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="5">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5">
-        <v>8</v>
-      </c>
-      <c r="D9" s="5">
-        <v>8</v>
-      </c>
-      <c r="E9" s="5">
-        <v>8</v>
-      </c>
-      <c r="F9" s="5">
-        <v>8</v>
-      </c>
-      <c r="G9" s="5">
-        <v>8</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I9" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="5">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5">
-        <v>9</v>
-      </c>
-      <c r="D10" s="5">
-        <v>9</v>
-      </c>
-      <c r="E10" s="5">
-        <v>9</v>
-      </c>
-      <c r="F10" s="5">
-        <v>9</v>
-      </c>
-      <c r="G10" s="5">
-        <v>9</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="I10" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="5">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5">
-        <v>10</v>
-      </c>
-      <c r="E11" s="5">
-        <v>10</v>
-      </c>
-      <c r="F11" s="5">
-        <v>10</v>
-      </c>
-      <c r="G11" s="5">
-        <v>10</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="7">
-        <v>6</v>
-      </c>
-      <c r="C12" s="7">
-        <v>3</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="5">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5">
-        <v>2</v>
-      </c>
-      <c r="D13" s="5">
-        <v>3</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>2</v>
-      </c>
-      <c r="G13" s="5">
-        <v>3</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="5">
-        <v>3</v>
-      </c>
-      <c r="C14" s="5">
-        <v>2</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5">
-        <v>3</v>
-      </c>
-      <c r="F14" s="5">
-        <v>2</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="5">
-        <v>7</v>
-      </c>
-      <c r="C15" s="5">
-        <v>8</v>
-      </c>
-      <c r="D15" s="5">
-        <v>9</v>
-      </c>
-      <c r="E15" s="5">
-        <v>7</v>
-      </c>
-      <c r="F15" s="5">
-        <v>8</v>
-      </c>
-      <c r="G15" s="5">
-        <v>9</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="5">
-        <v>9</v>
-      </c>
-      <c r="C16" s="5">
-        <v>8</v>
-      </c>
-      <c r="D16" s="5">
-        <v>7</v>
-      </c>
-      <c r="E16" s="5">
-        <v>9</v>
-      </c>
-      <c r="F16" s="5">
-        <v>8</v>
-      </c>
-      <c r="G16" s="5">
-        <v>7</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I16" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="5">
-        <v>5</v>
-      </c>
-      <c r="C17" s="5">
-        <v>5</v>
-      </c>
-      <c r="D17" s="5">
-        <v>5</v>
-      </c>
-      <c r="E17" s="5">
-        <v>5</v>
-      </c>
-      <c r="F17" s="5">
-        <v>5</v>
-      </c>
-      <c r="G17" s="5">
-        <v>5</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I17" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="5">
-        <v>1</v>
-      </c>
-      <c r="C18" s="5">
-        <v>2</v>
-      </c>
-      <c r="D18" s="5">
-        <v>1</v>
-      </c>
-      <c r="E18" s="5">
-        <v>2</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5">
-        <v>2</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I18" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="5">
-        <v>2</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5">
-        <v>2</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5">
-        <v>2</v>
-      </c>
-      <c r="G19" s="5">
-        <v>1</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="7">
-        <v>1</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="7">
-        <v>6</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3</v>
-      </c>
-      <c r="D21" s="7">
-        <v>9</v>
-      </c>
-      <c r="E21" s="7">
-        <v>10</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="5">
-        <v>10</v>
-      </c>
-      <c r="C22" s="5">
-        <v>9</v>
-      </c>
-      <c r="D22" s="5">
-        <v>8</v>
-      </c>
-      <c r="E22" s="5">
-        <v>7</v>
-      </c>
-      <c r="F22" s="5">
-        <v>6</v>
-      </c>
-      <c r="G22" s="5">
-        <v>5</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I22" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="5">
-        <v>1</v>
-      </c>
-      <c r="C23" s="5">
-        <v>2</v>
-      </c>
-      <c r="D23" s="5">
-        <v>3</v>
-      </c>
-      <c r="E23" s="5">
-        <v>4</v>
-      </c>
-      <c r="F23" s="5">
-        <v>5</v>
-      </c>
-      <c r="G23" s="5">
-        <v>6</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I23" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="5">
-        <v>1</v>
-      </c>
-      <c r="C24" s="5">
-        <v>1</v>
-      </c>
-      <c r="D24" s="5">
-        <v>1</v>
-      </c>
-      <c r="E24" s="5">
-        <v>1</v>
-      </c>
-      <c r="F24" s="5">
-        <v>1</v>
-      </c>
-      <c r="G24" s="5">
-        <v>1</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I24" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="7">
-        <v>7</v>
-      </c>
-      <c r="C25" s="7">
-        <v>8</v>
-      </c>
-      <c r="D25" s="7">
-        <v>9</v>
-      </c>
-      <c r="E25" s="7">
-        <v>3</v>
-      </c>
-      <c r="F25" s="7">
-        <v>2</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="7">
-        <v>6</v>
-      </c>
-      <c r="C26" s="7">
-        <v>3</v>
-      </c>
-      <c r="D26" s="7">
-        <v>9</v>
-      </c>
-      <c r="E26" s="7">
-        <v>10</v>
-      </c>
-      <c r="F26" s="7">
-        <v>5</v>
-      </c>
-      <c r="G26" s="7">
-        <v>10</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="5">
-        <v>10</v>
-      </c>
-      <c r="C27" s="5">
-        <v>10</v>
-      </c>
-      <c r="D27" s="5">
-        <v>10</v>
-      </c>
-      <c r="E27" s="5">
-        <v>10</v>
-      </c>
-      <c r="F27" s="5">
-        <v>10</v>
-      </c>
-      <c r="G27" s="5">
-        <v>10</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I27" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="5">
-        <v>1</v>
-      </c>
-      <c r="C28" s="5">
-        <v>1</v>
-      </c>
-      <c r="D28" s="5">
-        <v>1</v>
-      </c>
-      <c r="E28" s="5">
-        <v>1</v>
-      </c>
-      <c r="F28" s="5">
-        <v>1</v>
-      </c>
-      <c r="G28" s="5">
-        <v>1</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I28" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="7">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>5</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="5">
-        <v>1</v>
-      </c>
-      <c r="C30" s="5">
-        <v>3</v>
-      </c>
-      <c r="D30" s="5">
-        <v>1</v>
-      </c>
-      <c r="E30" s="5">
-        <v>3</v>
-      </c>
-      <c r="F30" s="5">
-        <v>1</v>
-      </c>
-      <c r="G30" s="5">
-        <v>3</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I30" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="5">
-        <v>10</v>
-      </c>
-      <c r="C31" s="5">
-        <v>8</v>
-      </c>
-      <c r="D31" s="5">
-        <v>10</v>
-      </c>
-      <c r="E31" s="5">
-        <v>8</v>
-      </c>
-      <c r="F31" s="5">
-        <v>10</v>
-      </c>
-      <c r="G31" s="5">
-        <v>8</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I31" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="5">
-        <v>9</v>
-      </c>
-      <c r="C32" s="5">
-        <v>7</v>
-      </c>
-      <c r="D32" s="5">
-        <v>9</v>
-      </c>
-      <c r="E32" s="5">
-        <v>7</v>
-      </c>
-      <c r="F32" s="5">
-        <v>9</v>
-      </c>
-      <c r="G32" s="5">
-        <v>7</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I32" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="5">
-        <v>2</v>
-      </c>
-      <c r="C33" s="5">
-        <v>4</v>
-      </c>
-      <c r="D33" s="5">
-        <v>2</v>
-      </c>
-      <c r="E33" s="5">
-        <v>4</v>
-      </c>
-      <c r="F33" s="5">
-        <v>2</v>
-      </c>
-      <c r="G33" s="5">
-        <v>4</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I33" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="7">
-        <v>6</v>
-      </c>
-      <c r="C35" s="7">
-        <v>3</v>
-      </c>
-      <c r="D35" s="7">
-        <v>9</v>
-      </c>
-      <c r="E35" s="7">
-        <v>10</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="5">
-        <v>10</v>
-      </c>
-      <c r="C36" s="5">
-        <v>1</v>
-      </c>
-      <c r="D36" s="5">
-        <v>10</v>
-      </c>
-      <c r="E36" s="5">
-        <v>1</v>
-      </c>
-      <c r="F36" s="5">
-        <v>10</v>
-      </c>
-      <c r="G36" s="5">
-        <v>10</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I36" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="5">
-        <v>1</v>
-      </c>
-      <c r="C37" s="5">
-        <v>1</v>
-      </c>
-      <c r="D37" s="5">
-        <v>1</v>
-      </c>
-      <c r="E37" s="5">
-        <v>1</v>
-      </c>
-      <c r="F37" s="5">
-        <v>2</v>
-      </c>
-      <c r="G37" s="5">
-        <v>2</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I37" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="5">
-        <v>2</v>
-      </c>
-      <c r="C38" s="5">
-        <v>2</v>
-      </c>
-      <c r="D38" s="5">
-        <v>2</v>
-      </c>
-      <c r="E38" s="5">
-        <v>4</v>
-      </c>
-      <c r="F38" s="5">
-        <v>4</v>
-      </c>
-      <c r="G38" s="5">
-        <v>4</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="I38" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="5">
-        <v>9</v>
-      </c>
-      <c r="C39" s="5">
-        <v>9</v>
-      </c>
-      <c r="D39" s="5">
-        <v>9</v>
-      </c>
-      <c r="E39" s="5">
-        <v>9</v>
-      </c>
-      <c r="F39" s="5">
-        <v>7</v>
-      </c>
-      <c r="G39" s="5">
-        <v>7</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I39" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="5">
-        <v>5</v>
-      </c>
-      <c r="C40" s="5">
-        <v>5</v>
-      </c>
-      <c r="D40" s="5">
-        <v>5</v>
-      </c>
-      <c r="E40" s="5">
-        <v>5</v>
-      </c>
-      <c r="F40" s="5">
-        <v>5</v>
-      </c>
-      <c r="G40" s="5">
-        <v>5</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I40" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" s="5">
-        <v>4</v>
-      </c>
-      <c r="C41" s="5">
-        <v>6</v>
-      </c>
-      <c r="D41" s="5">
-        <v>4</v>
-      </c>
-      <c r="E41" s="5">
-        <v>6</v>
-      </c>
-      <c r="F41" s="5">
-        <v>4</v>
-      </c>
-      <c r="G41" s="5">
-        <v>6</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I41" s="5">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1872,13 +779,13 @@
           <x14:formula1>
             <xm:f>Choice!$A$2:$A$12</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:G41</xm:sqref>
+          <xm:sqref>B2:G2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3113A58F-753A-472E-89DA-E8E69CC1FA71}">
           <x14:formula1>
             <xm:f>Choice!$E$2:$E$13</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I41</xm:sqref>
+          <xm:sqref>I2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2434,7 +1341,7 @@
         <v>8</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>17</v>
@@ -2469,7 +1376,7 @@
         <v>11</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>16</v>
@@ -2535,7 +1442,7 @@
         <v>10</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>16</v>
@@ -2570,7 +1477,7 @@
         <v>8</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>17</v>
@@ -2634,7 +1541,7 @@
         <v>11</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>16</v>
@@ -2669,7 +1576,7 @@
         <v>9</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>18</v>
@@ -2704,7 +1611,7 @@
         <v>10</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>16</v>
@@ -2739,7 +1646,7 @@
         <v>8</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>17</v>
@@ -2801,7 +1708,7 @@
         <v>11</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>18</v>
@@ -2836,7 +1743,7 @@
         <v>9</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>18</v>
@@ -2871,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>16</v>
@@ -2906,7 +1813,7 @@
         <v>8</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J31" s="5" t="s">
         <v>17</v>
@@ -2972,7 +1879,7 @@
         <v>11</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>16</v>
@@ -3007,7 +1914,7 @@
         <v>9</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>18</v>
@@ -3071,7 +1978,7 @@
         <v>8</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J36" s="5" t="s">
         <v>17</v>
@@ -3106,7 +2013,7 @@
         <v>8</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J37" s="5" t="s">
         <v>17</v>
@@ -3141,7 +2048,7 @@
         <v>11</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>28</v>
@@ -3174,7 +2081,7 @@
         <v>9</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J39" s="5" t="s">
         <v>18</v>
@@ -3209,7 +2116,7 @@
         <v>10</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J40" s="5" t="s">
         <v>16</v>
@@ -3244,7 +2151,7 @@
         <v>8</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J41" s="5" t="s">
         <v>17</v>
